--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLHayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLHayHue.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Sim Lỗi</t>
+  </si>
+  <si>
+    <t>12/11/2020</t>
   </si>
 </sst>
 </file>
@@ -746,30 +749,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -791,10 +770,34 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1103,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11:Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1135,43 +1138,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1216,58 +1219,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1292,24 +1295,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1318,7 +1321,9 @@
       <c r="B6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>93</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>47</v>
       </c>
@@ -1361,7 +1366,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1392,7 +1397,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1421,7 +1426,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1450,7 +1455,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1479,7 +1484,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1508,7 +1513,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1537,7 +1542,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1568,7 +1573,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1602,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1626,7 +1631,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1655,7 +1660,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2889,10 +2894,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2921,8 +2926,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2948,8 +2953,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4236,6 +4241,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -4246,16 +4261,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4266,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4298,43 +4303,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4379,58 +4384,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4455,24 +4460,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4481,7 +4486,9 @@
       <c r="B6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>93</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>44</v>
       </c>
@@ -4524,7 +4531,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4538,7 +4545,9 @@
       <c r="B7" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>44</v>
       </c>
@@ -4581,7 +4590,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4610,7 +4619,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4639,7 +4648,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4668,7 +4677,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4697,7 +4706,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4726,7 +4735,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4757,7 +4766,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4786,7 +4795,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4815,7 +4824,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4844,7 +4853,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6078,10 +6087,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6110,8 +6119,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6137,8 +6146,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7424,6 +7433,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -7434,16 +7453,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7453,7 +7462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -7485,43 +7494,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7566,58 +7575,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7642,24 +7651,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7693,7 +7702,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7732,7 +7741,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7761,7 +7770,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7790,7 +7799,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7819,7 +7828,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7848,7 +7857,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7877,7 +7886,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7908,7 +7917,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7937,7 +7946,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7966,7 +7975,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -7995,7 +8004,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9229,10 +9238,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -9261,8 +9270,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9288,8 +9297,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10575,6 +10584,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -10585,16 +10604,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10636,43 +10645,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
-      <c r="S1" s="71"/>
-      <c r="T1" s="71"/>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="81"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="74"/>
+      <c r="F2" s="84"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10717,58 +10726,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="77" t="s">
+      <c r="L4" s="78"/>
+      <c r="M4" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="85" t="s">
+      <c r="P4" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="86" t="s">
+      <c r="S4" s="79" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="76" t="s">
+      <c r="W4" s="78" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10793,24 +10802,24 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="78"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="80"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -10836,7 +10845,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="79" t="s">
+      <c r="V6" s="71" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10867,7 +10876,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="80"/>
+      <c r="V7" s="72"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10896,7 +10905,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="80"/>
+      <c r="V8" s="72"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10925,7 +10934,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="80"/>
+      <c r="V9" s="72"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10954,7 +10963,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="80"/>
+      <c r="V10" s="72"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10983,7 +10992,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="80"/>
+      <c r="V11" s="72"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11012,7 +11021,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="79" t="s">
+      <c r="V12" s="71" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11043,7 +11052,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="80"/>
+      <c r="V13" s="72"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11072,7 +11081,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="80"/>
+      <c r="V14" s="72"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11101,7 +11110,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="80"/>
+      <c r="V15" s="72"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11130,7 +11139,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="81"/>
+      <c r="V16" s="73"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -12364,10 +12373,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="82" t="s">
+      <c r="V56" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="82">
+      <c r="W56" s="74">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12396,8 +12405,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="83"/>
-      <c r="W57" s="83"/>
+      <c r="V57" s="75"/>
+      <c r="W57" s="75"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12423,8 +12432,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="84"/>
-      <c r="W58" s="84"/>
+      <c r="V58" s="76"/>
+      <c r="W58" s="76"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13711,6 +13720,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
     <mergeCell ref="V6:V11"/>
     <mergeCell ref="V12:V16"/>
     <mergeCell ref="V56:V58"/>
@@ -13721,16 +13740,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="W4:W5"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLHayHue.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang11/02.XuLyBH/XLBH2011_ĐLHayHue.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\BAO HANH\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2020\Thang11\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TG102SE" sheetId="30" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="94">
   <si>
     <t>STT</t>
   </si>
@@ -749,6 +749,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -770,34 +794,10 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11:Q11"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1138,43 +1138,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -1219,58 +1219,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1295,24 +1295,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -1366,7 +1366,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="64"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -1397,7 +1397,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="64"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="80"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="64"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="80"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1455,7 +1455,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="64"/>
       <c r="U9" s="64"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -1484,7 +1484,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="64"/>
       <c r="U10" s="64"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="80"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="64"/>
       <c r="U11" s="64"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="64"/>
       <c r="U12" s="64"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -1573,7 +1573,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="64"/>
       <c r="U13" s="64"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="80"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1602,7 +1602,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="64"/>
       <c r="U14" s="64"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="80"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1631,7 +1631,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="64"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="80"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1660,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="64"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="81"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2894,10 +2894,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="82">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -2926,8 +2926,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -2953,8 +2953,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -4241,6 +4241,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -4251,16 +4261,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4271,8 +4271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12:P12"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4303,43 +4303,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -4384,58 +4384,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -4460,24 +4460,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -4531,7 +4531,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -4590,7 +4590,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="80"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="80"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="80"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -4706,7 +4706,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -4735,7 +4735,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -4766,7 +4766,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="80"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="80"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="80"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -4853,7 +4853,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="81"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -6087,10 +6087,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="82">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -6119,8 +6119,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -6146,8 +6146,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -7433,6 +7433,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -7443,16 +7453,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7462,8 +7462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7494,43 +7494,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -7575,58 +7575,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -7651,24 +7651,24 @@
       <c r="I5" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
@@ -7677,7 +7677,9 @@
       <c r="B6" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="68" t="s">
+        <v>93</v>
+      </c>
       <c r="D6" s="51" t="s">
         <v>75</v>
       </c>
@@ -7702,7 +7704,7 @@
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="70"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -7716,7 +7718,9 @@
       <c r="B7" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="68" t="s">
+        <v>93</v>
+      </c>
       <c r="D7" s="51" t="s">
         <v>67</v>
       </c>
@@ -7741,7 +7745,7 @@
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="70"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="80"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -7770,7 +7774,7 @@
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="70"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="80"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -7799,7 +7803,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="70"/>
       <c r="U9" s="70"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -7828,7 +7832,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="70"/>
       <c r="U10" s="70"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="80"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -7857,7 +7861,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="70"/>
       <c r="U11" s="70"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -7886,7 +7890,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="70"/>
       <c r="U12" s="70"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -7917,7 +7921,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="70"/>
       <c r="U13" s="70"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="80"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -7946,7 +7950,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="70"/>
       <c r="U14" s="70"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="80"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -7975,7 +7979,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="70"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="80"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -8004,7 +8008,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="70"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="81"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -9238,10 +9242,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="82">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>2</v>
       </c>
@@ -9270,8 +9274,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -9297,8 +9301,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -10584,6 +10588,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -10594,16 +10608,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10613,8 +10617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10645,43 +10649,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81"/>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-      <c r="V1" s="81"/>
-      <c r="W1" s="81"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="71"/>
+      <c r="T1" s="71"/>
+      <c r="U1" s="71"/>
+      <c r="V1" s="71"/>
+      <c r="W1" s="71"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="84" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="84"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="6"/>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -10726,58 +10730,58 @@
       <c r="W3" s="29"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="86" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="86" t="s">
+      <c r="N4" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="79" t="s">
+      <c r="S4" s="86" t="s">
         <v>64</v>
       </c>
       <c r="T4" s="28"/>
       <c r="U4" s="28"/>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="W4" s="78" t="s">
+      <c r="W4" s="76" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="75"/>
       <c r="B5" s="5" t="s">
         <v>1</v>
       </c>
@@ -10802,50 +10806,78 @@
       <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="87"/>
       <c r="T5" s="28"/>
       <c r="U5" s="28"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="1:23" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="53"/>
+      <c r="B6" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="52">
+        <v>866104026999477</v>
+      </c>
+      <c r="F6" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="60" t="s">
+        <v>89</v>
+      </c>
       <c r="J6" s="53"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
+      <c r="K6" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="55"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="51"/>
+      <c r="O6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="51" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="28"/>
       <c r="U6" s="30"/>
-      <c r="V6" s="71" t="s">
+      <c r="V6" s="79" t="s">
         <v>18</v>
       </c>
       <c r="W6" s="4" t="s">
@@ -10856,27 +10888,55 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="52">
+        <v>868183034630496</v>
+      </c>
       <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="56"/>
+      <c r="G7" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="65"/>
+      <c r="I7" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="N7" s="55"/>
+      <c r="O7" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>81</v>
+      </c>
       <c r="S7" s="4"/>
       <c r="T7" s="28"/>
       <c r="U7" s="30"/>
-      <c r="V7" s="72"/>
+      <c r="V7" s="80"/>
       <c r="W7" s="4" t="s">
         <v>35</v>
       </c>
@@ -10885,27 +10945,55 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="B8" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="52">
+        <v>868183035907695</v>
+      </c>
+      <c r="F8" s="65"/>
+      <c r="G8" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="65"/>
+      <c r="I8" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>87</v>
+      </c>
       <c r="N8" s="3"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="56"/>
+      <c r="O8" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="56" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="4"/>
       <c r="T8" s="28"/>
       <c r="U8" s="30"/>
-      <c r="V8" s="72"/>
+      <c r="V8" s="80"/>
       <c r="W8" s="4" t="s">
         <v>21</v>
       </c>
@@ -10934,7 +11022,7 @@
       <c r="S9" s="4"/>
       <c r="T9" s="30"/>
       <c r="U9" s="30"/>
-      <c r="V9" s="72"/>
+      <c r="V9" s="80"/>
       <c r="W9" s="4" t="s">
         <v>59</v>
       </c>
@@ -10963,7 +11051,7 @@
       <c r="S10" s="4"/>
       <c r="T10" s="30"/>
       <c r="U10" s="30"/>
-      <c r="V10" s="72"/>
+      <c r="V10" s="80"/>
       <c r="W10" s="4" t="s">
         <v>31</v>
       </c>
@@ -10992,7 +11080,7 @@
       <c r="S11" s="4"/>
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
-      <c r="V11" s="72"/>
+      <c r="V11" s="80"/>
       <c r="W11" s="4" t="s">
         <v>30</v>
       </c>
@@ -11021,7 +11109,7 @@
       <c r="S12" s="4"/>
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
-      <c r="V12" s="71" t="s">
+      <c r="V12" s="79" t="s">
         <v>19</v>
       </c>
       <c r="W12" s="4" t="s">
@@ -11052,7 +11140,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="30"/>
       <c r="U13" s="30"/>
-      <c r="V13" s="72"/>
+      <c r="V13" s="80"/>
       <c r="W13" s="4" t="s">
         <v>37</v>
       </c>
@@ -11081,7 +11169,7 @@
       <c r="S14" s="4"/>
       <c r="T14" s="30"/>
       <c r="U14" s="30"/>
-      <c r="V14" s="72"/>
+      <c r="V14" s="80"/>
       <c r="W14" s="4" t="s">
         <v>36</v>
       </c>
@@ -11110,7 +11198,7 @@
       <c r="S15" s="4"/>
       <c r="T15" s="30"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="72"/>
+      <c r="V15" s="80"/>
       <c r="W15" s="4" t="s">
         <v>24</v>
       </c>
@@ -11139,7 +11227,7 @@
       <c r="S16" s="4"/>
       <c r="T16" s="30"/>
       <c r="U16" s="16"/>
-      <c r="V16" s="73"/>
+      <c r="V16" s="81"/>
       <c r="W16" s="4" t="s">
         <v>25</v>
       </c>
@@ -11258,7 +11346,7 @@
       </c>
       <c r="W20" s="11">
         <f>COUNTIF($Q$6:$Q$105,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11599,7 +11687,7 @@
       </c>
       <c r="W31" s="11">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11727,7 +11815,7 @@
       </c>
       <c r="W35" s="11">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -11791,7 +11879,7 @@
       </c>
       <c r="W37" s="11">
         <f>SUM(W26:W36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12058,7 +12146,7 @@
       </c>
       <c r="W46" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102LE")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12154,7 +12242,7 @@
       </c>
       <c r="W49" s="11">
         <f>COUNTIF($D$6:$D$105,"TG102SE")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12373,10 +12461,10 @@
       <c r="S56" s="36"/>
       <c r="T56" s="46"/>
       <c r="U56" s="48"/>
-      <c r="V56" s="74" t="s">
+      <c r="V56" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="W56" s="74">
+      <c r="W56" s="82">
         <f>SUM(COUNTIF($D$6:$D$106,"**")-SUM($W$45:$W$55))</f>
         <v>0</v>
       </c>
@@ -12405,8 +12493,8 @@
       <c r="S57" s="36"/>
       <c r="T57" s="46"/>
       <c r="U57" s="48"/>
-      <c r="V57" s="75"/>
-      <c r="W57" s="75"/>
+      <c r="V57" s="83"/>
+      <c r="W57" s="83"/>
     </row>
     <row r="58" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
@@ -12432,8 +12520,8 @@
       <c r="S58" s="36"/>
       <c r="T58" s="46"/>
       <c r="U58" s="48"/>
-      <c r="V58" s="76"/>
-      <c r="W58" s="76"/>
+      <c r="V58" s="84"/>
+      <c r="W58" s="84"/>
     </row>
     <row r="59" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
@@ -13720,6 +13808,16 @@
   </sheetData>
   <autoFilter ref="S1:S105"/>
   <mergeCells count="20">
+    <mergeCell ref="V6:V11"/>
+    <mergeCell ref="V12:V16"/>
+    <mergeCell ref="V56:V58"/>
+    <mergeCell ref="W56:W58"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:F2"/>
@@ -13730,16 +13828,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="V6:V11"/>
-    <mergeCell ref="V12:V16"/>
-    <mergeCell ref="V56:V58"/>
-    <mergeCell ref="W56:W58"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
